--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.4.1 20170425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.4.1 20170425/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="14565" activeTab="5"/>
+    <workbookView xWindow="820" yWindow="640" windowWidth="25600" windowHeight="14560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>No</t>
   </si>
@@ -244,13 +244,143 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>【重复照片识别功能】提高人工审核照片效率</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>书生</t>
+    <rPh sb="0" eb="1">
+      <t>shu'sheng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>依米</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>DV-3257</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源PC审核展示规则调整</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>重楼</t>
+    <rPh sb="0" eb="1">
+      <t>chong'l</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>依米，秦屿</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>DV-3377 </t>
+  </si>
+  <si>
+    <t>【首页新增推广模块】展示房东当前各渠道推广房源数量及待办事项</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+  </si>
+  <si>
+    <t>秦屿</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3366</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>release_5.4.1</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/contract_template/*.vm</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>由于之前为了TP端能够显示合同被迫修改了合同字体为24px,现在tp端已经进行了优化，字体还原为12px
+nas文件服务执行: find /data/contract_template -name *.vm|xargs sed -i 's/font-size:24px;/font-size:12px;/g'
+检查: common、private 各抽一个 *.vm 进行检查  font-size:12px; 存在即可</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改合同字体</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1047,8 +1177,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1410,36 +1540,36 @@
   <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+      <selection activeCell="A2" sqref="A2:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1510,85 +1640,193 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A2" s="79">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="59">
+        <v>42844</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="59">
+        <v>42844</v>
+      </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="67"/>
+      <c r="L2" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>42849</v>
+      </c>
+      <c r="R2" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="T2" s="67"/>
       <c r="U2" s="56"/>
       <c r="V2" s="66"/>
       <c r="W2" s="71"/>
       <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A3" s="79">
+        <v>2</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="59">
+        <v>42844</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="59">
+        <v>42844</v>
+      </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="67"/>
+      <c r="L3" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42849</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>86</v>
+      </c>
       <c r="T3" s="67"/>
       <c r="U3" s="56"/>
       <c r="V3" s="66"/>
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79">
+        <v>3</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42844</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42844</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="67"/>
+      <c r="L4" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42849</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>90</v>
+      </c>
       <c r="T4" s="67"/>
       <c r="U4" s="56"/>
       <c r="V4" s="66"/>
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -1614,7 +1852,7 @@
       <c r="W5" s="73"/>
       <c r="X5" s="72"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -1640,7 +1878,7 @@
       <c r="W6" s="73"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
@@ -1666,7 +1904,7 @@
       <c r="W7" s="84"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -1692,7 +1930,7 @@
       <c r="W8" s="73"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -1718,7 +1956,7 @@
       <c r="W9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -1744,7 +1982,7 @@
       <c r="W10" s="73"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -1770,7 +2008,7 @@
       <c r="W11" s="73"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -1796,7 +2034,7 @@
       <c r="W12" s="73"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
@@ -1822,7 +2060,7 @@
       <c r="W13" s="73"/>
       <c r="X13" s="72"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
@@ -1848,7 +2086,7 @@
       <c r="W14" s="73"/>
       <c r="X14" s="72"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
@@ -1874,7 +2112,7 @@
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
@@ -1900,7 +2138,7 @@
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1926,7 +2164,7 @@
       <c r="W17" s="73"/>
       <c r="X17" s="72"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1952,7 +2190,7 @@
       <c r="W18" s="74"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1977,7 +2215,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5">
+    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2002,7 +2240,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5">
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2027,7 +2265,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5">
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2052,7 +2290,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5">
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2077,7 +2315,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5">
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2102,7 +2340,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="73"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5">
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2127,7 +2365,7 @@
       <c r="V25" s="69"/>
       <c r="W25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5">
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2152,7 +2390,7 @@
       <c r="V26" s="70"/>
       <c r="W26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5">
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2177,7 +2415,7 @@
       <c r="V27" s="76"/>
       <c r="W27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2202,7 +2440,7 @@
       <c r="V28" s="70"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2227,7 +2465,7 @@
       <c r="V29" s="70"/>
       <c r="W29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2252,7 +2490,7 @@
       <c r="V30" s="68"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2277,7 +2515,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2302,7 +2540,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2327,7 +2565,7 @@
       <c r="V33" s="56"/>
       <c r="W33" s="73"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2352,7 +2590,7 @@
       <c r="V34" s="70"/>
       <c r="W34" s="75"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2377,7 +2615,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2402,7 +2640,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2427,7 +2665,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2452,7 +2690,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2477,7 +2715,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="73"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2502,7 +2740,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="73"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2527,7 +2765,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="73"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2552,7 +2790,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="73"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2577,7 +2815,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="73"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2602,7 +2840,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="73"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2627,7 +2865,7 @@
       <c r="V45" s="56"/>
       <c r="W45" s="73"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2652,7 +2890,7 @@
       <c r="V46" s="68"/>
       <c r="W46" s="73"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2677,7 +2915,7 @@
       <c r="V47" s="68"/>
       <c r="W47" s="73"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2702,7 +2940,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2727,7 +2965,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2752,7 +2990,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2777,7 +3015,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2802,7 +3040,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2827,7 +3065,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -2852,7 +3090,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2877,7 +3115,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -2902,7 +3140,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -2927,7 +3165,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -2952,7 +3190,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -2977,7 +3215,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3002,7 +3240,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3027,7 +3265,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3052,7 +3290,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3077,7 +3315,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3102,7 +3340,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3127,7 +3365,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3152,7 +3390,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3177,7 +3415,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3202,7 +3440,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3227,7 +3465,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3252,7 +3490,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3277,7 +3515,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3302,7 +3540,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3327,7 +3565,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3352,7 +3590,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3377,7 +3615,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3402,7 +3640,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3427,7 +3665,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5">
+    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3452,7 +3690,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5">
+    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3477,7 +3715,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" ht="16.5">
+    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3502,7 +3740,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3527,7 +3765,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3552,7 +3790,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3577,7 +3815,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3602,7 +3840,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3627,7 +3865,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3652,7 +3890,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3677,7 +3915,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -3702,7 +3940,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -3727,7 +3965,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -3752,7 +3990,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -3777,7 +4015,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -3802,7 +4040,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -3827,7 +4065,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -3852,7 +4090,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -3877,7 +4115,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -3902,7 +4140,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -3927,7 +4165,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -3952,7 +4190,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -3977,7 +4215,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4002,7 +4240,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4027,7 +4265,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4052,7 +4290,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4077,7 +4315,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4102,7 +4340,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4127,7 +4365,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4152,7 +4390,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4177,7 +4415,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4202,7 +4440,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4227,7 +4465,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4252,7 +4490,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4277,7 +4515,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4302,7 +4540,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4327,7 +4565,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4352,7 +4590,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4377,7 +4615,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4402,7 +4640,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4427,7 +4665,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4452,7 +4690,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4477,7 +4715,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4502,7 +4740,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4527,7 +4765,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4552,7 +4790,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4577,7 +4815,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4602,7 +4840,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4627,7 +4865,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4652,7 +4890,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4677,7 +4915,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -4702,7 +4940,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -4727,7 +4965,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -4752,7 +4990,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -4777,7 +5015,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -4802,7 +5040,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4827,7 +5065,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -4852,7 +5090,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -4877,7 +5115,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -4902,7 +5140,7 @@
       <c r="V136" s="56"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4923,7 +5161,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -4944,7 +5182,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -4965,7 +5203,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -4986,7 +5224,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5007,7 +5245,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5028,7 +5266,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5049,7 +5287,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5070,7 +5308,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5091,7 +5329,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5112,7 +5350,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5133,7 +5371,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5154,7 +5392,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5175,7 +5413,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5196,7 +5434,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5217,7 +5455,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5238,7 +5476,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5259,7 +5497,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5280,7 +5518,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5301,7 +5539,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5322,7 +5560,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5343,7 +5581,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5364,7 +5602,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5385,7 +5623,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5406,7 +5644,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5427,7 +5665,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5448,7 +5686,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5469,7 +5707,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5490,7 +5728,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5511,7 +5749,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5532,7 +5770,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5553,7 +5791,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5574,7 +5812,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5595,7 +5833,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5616,7 +5854,7 @@
       <c r="R170" s="57"/>
       <c r="W170" s="57"/>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="56"/>
       <c r="B171" s="56"/>
       <c r="C171" s="56"/>
@@ -5661,7 +5899,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5678,27 +5916,27 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5754,7 +5992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="94" customFormat="1" ht="16.5">
+    <row r="2" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -5774,7 +6012,7 @@
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
     </row>
-    <row r="3" spans="1:18" s="94" customFormat="1" ht="16.5">
+    <row r="3" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="85"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
@@ -5794,7 +6032,7 @@
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5828,19 +6066,19 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="102" t="s">
         <v>39</v>
       </c>
@@ -5855,7 +6093,7 @@
       <c r="J1" s="103"/>
       <c r="K1" s="103"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5890,7 +6128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="104"/>
       <c r="B3" s="104"/>
       <c r="C3" s="20"/>
@@ -5903,7 +6141,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="105"/>
       <c r="B4" s="106"/>
       <c r="C4" s="20"/>
@@ -5916,7 +6154,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="104"/>
       <c r="B5" s="104"/>
       <c r="C5" s="20"/>
@@ -5929,7 +6167,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="106"/>
       <c r="B6" s="106"/>
       <c r="C6" s="20"/>
@@ -5942,7 +6180,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="106"/>
       <c r="B7" s="106"/>
       <c r="C7" s="20"/>
@@ -5955,7 +6193,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="106"/>
       <c r="B8" s="106"/>
       <c r="C8" s="20"/>
@@ -5968,7 +6206,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="106"/>
       <c r="B9" s="106"/>
       <c r="C9" s="20"/>
@@ -5981,7 +6219,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="105"/>
       <c r="B10" s="105"/>
       <c r="C10" s="20"/>
@@ -5994,7 +6232,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6028,22 +6266,22 @@
       <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
         <v>50</v>
       </c>
@@ -6060,7 +6298,7 @@
       <c r="L1" s="107"/>
       <c r="M1" s="108"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="109"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -6075,7 +6313,7 @@
       <c r="L2" s="109"/>
       <c r="M2" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6116,7 +6354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6131,7 +6369,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6146,7 +6384,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6161,7 +6399,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6176,7 +6414,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6191,7 +6429,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6206,7 +6444,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6221,7 +6459,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6236,7 +6474,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6251,7 +6489,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6266,7 +6504,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6281,7 +6519,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6296,7 +6534,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6343,22 +6581,22 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
         <v>50</v>
       </c>
@@ -6375,7 +6613,7 @@
       <c r="L1" s="107"/>
       <c r="M1" s="108"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="109"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -6390,7 +6628,7 @@
       <c r="L2" s="109"/>
       <c r="M2" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6431,7 +6669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6446,7 +6684,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6461,7 +6699,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6476,7 +6714,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6491,7 +6729,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6506,7 +6744,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6521,7 +6759,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6536,7 +6774,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6551,7 +6789,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6566,7 +6804,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6581,7 +6819,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6596,7 +6834,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6611,7 +6849,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6654,25 +6892,25 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
         <v>50</v>
       </c>
@@ -6689,7 +6927,7 @@
       <c r="L1" s="107"/>
       <c r="M1" s="108"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="109"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -6704,7 +6942,7 @@
       <c r="L2" s="109"/>
       <c r="M2" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6745,22 +6983,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+    <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.15">
+      <c r="A4" s="80">
+        <v>1</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>100</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6775,7 +7037,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6790,7 +7052,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6805,7 +7067,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6820,7 +7082,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6835,7 +7097,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6850,7 +7112,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6865,7 +7127,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6880,7 +7142,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6895,7 +7157,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6910,7 +7172,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6925,7 +7187,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6971,24 +7233,24 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="107" t="s">
         <v>50</v>
       </c>
@@ -7005,7 +7267,7 @@
       <c r="L1" s="107"/>
       <c r="M1" s="108"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="109"/>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -7020,7 +7282,7 @@
       <c r="L2" s="109"/>
       <c r="M2" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7061,7 +7323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7076,7 +7338,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7091,7 +7353,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7106,7 +7368,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7121,7 +7383,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7136,7 +7398,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7151,7 +7413,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7166,7 +7428,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7181,7 +7443,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7196,7 +7458,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7211,7 +7473,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7226,7 +7488,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7241,7 +7503,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7287,18 +7549,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7324,7 +7586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7334,7 +7596,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7344,7 +7606,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7354,7 +7616,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7364,7 +7626,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7374,7 +7636,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7384,7 +7646,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7394,7 +7656,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7404,7 +7666,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7414,7 +7676,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7424,7 +7686,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7434,7 +7696,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7444,7 +7706,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7454,7 +7716,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7464,7 +7726,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7474,7 +7736,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7484,7 +7746,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7494,7 +7756,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="640" windowWidth="25600" windowHeight="14560" activeTab="5"/>
+    <workbookView xWindow="820" yWindow="640" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -373,6 +373,41 @@
   </si>
   <si>
     <t>田东兴</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市开放改造</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc、bs、定时器</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.60.204/browse/EQ-841</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1196,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1539,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1826,31 +1870,65 @@
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="72"/>
+    <row r="5" spans="1:24" s="113" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="95">
+        <v>1</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="97">
+        <v>42846</v>
+      </c>
+      <c r="I5" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="97">
+        <v>42846</v>
+      </c>
+      <c r="K5" s="96"/>
+      <c r="L5" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="97">
+        <v>42846</v>
+      </c>
+      <c r="R5" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="112"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
@@ -5899,10 +5977,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -6891,7 +6972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.4.1 20170425/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="640" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="825" yWindow="645" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -410,12 +405,118 @@
     <t>http://192.168.60.204/browse/EQ-841</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>纸质合同图片个数增加为6张</t>
+  </si>
+  <si>
+    <t>renterembed-fe</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>任继庆</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+  </si>
+  <si>
+    <t>MGYFZZ-212</t>
+  </si>
+  <si>
+    <t>月付账单合并支付提示</t>
+  </si>
+  <si>
+    <t>renterembed-fe、renterembed、tasktracker</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚海强</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峥嵘</t>
+  </si>
+  <si>
+    <t>JRYF-431</t>
+  </si>
+  <si>
+    <t>月付放款列表新增1个字段，5列需要导出</t>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-442</t>
+  </si>
+  <si>
+    <t>月付申请列表增加资料提交时间，已取消原因字段</t>
+  </si>
+  <si>
+    <t>JRYF-443</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝申请管理导出增加3个字段</t>
+  </si>
+  <si>
+    <t>JRYF-444</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请月付时显示月付计划</t>
+  </si>
+  <si>
+    <t>renterembed-fe、renterembed</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-457</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有月付资质的房源点击进去会闪现蘑菇月付标签，然后一秒后消失</t>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>renterPC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYF-481</t>
+  </si>
+  <si>
+    <t>房源没有设置蘑菇宝付款方式，租客无法预览合同</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterapp、partnerPC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+  </si>
+  <si>
+    <t>JRYF-482</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -609,6 +710,20 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -863,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1285,15 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,14 +1321,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1221,7 +1357,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
@@ -1241,6 +1377,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1260,7 +1464,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1580,40 +1784,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A2" s="79">
         <v>1</v>
       </c>
@@ -1746,7 +1950,7 @@
       <c r="W2" s="71"/>
       <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A3" s="79">
         <v>2</v>
       </c>
@@ -1808,7 +2012,7 @@
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="79">
         <v>3</v>
       </c>
@@ -1870,9 +2074,9 @@
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="113" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="104" customFormat="1" ht="54">
       <c r="A5" s="95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="95" t="s">
         <v>68</v>
@@ -1926,219 +2130,507 @@
       </c>
       <c r="T5" s="99"/>
       <c r="U5" s="99"/>
-      <c r="V5" s="111"/>
+      <c r="V5" s="102"/>
       <c r="W5" s="98"/>
-      <c r="X5" s="112"/>
-    </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="X5" s="103"/>
+    </row>
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="59">
+        <v>42838</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="67"/>
+      <c r="L6" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="114" t="s">
+        <v>116</v>
+      </c>
       <c r="T6" s="67"/>
       <c r="U6" s="56"/>
       <c r="V6" s="66"/>
-      <c r="W6" s="73"/>
+      <c r="W6" s="115"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42838</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="67"/>
+      <c r="L7" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="114" t="s">
+        <v>121</v>
+      </c>
       <c r="T7" s="67"/>
       <c r="U7" s="56"/>
       <c r="V7" s="66"/>
-      <c r="W7" s="84"/>
+      <c r="W7" s="115"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="33">
+      <c r="A8" s="79">
+        <v>7</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="59">
+        <v>42838</v>
+      </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="L8" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="66"/>
-      <c r="W8" s="73"/>
+      <c r="W8" s="84"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="33">
+      <c r="A9" s="95">
+        <v>8</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="59">
+        <v>42838</v>
+      </c>
       <c r="K9" s="58"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
+      <c r="L9" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="56"/>
       <c r="U9" s="56"/>
       <c r="V9" s="66"/>
-      <c r="W9" s="73"/>
+      <c r="W9" s="84"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="33">
+      <c r="A10" s="79">
+        <v>9</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="59">
+        <v>42838</v>
+      </c>
       <c r="K10" s="58"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="67"/>
+      <c r="L10" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R10" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="114" t="s">
+        <v>128</v>
+      </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
       <c r="V10" s="66"/>
-      <c r="W10" s="73"/>
+      <c r="W10" s="84"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="33">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="59">
+        <v>42838</v>
+      </c>
       <c r="K11" s="58"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="67"/>
+      <c r="L11" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="114" t="s">
+        <v>131</v>
+      </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
       <c r="V11" s="66"/>
-      <c r="W11" s="73"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="49.5">
+      <c r="A12" s="79">
+        <v>11</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="59">
+        <v>42838</v>
+      </c>
       <c r="K12" s="58"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="67"/>
+      <c r="L12" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R12" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
       <c r="V12" s="66"/>
-      <c r="W12" s="73"/>
+      <c r="W12" s="84"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="72"/>
-    </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="120" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A13" s="95">
+        <v>12</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="59">
+        <v>42838</v>
+      </c>
+      <c r="K13" s="116"/>
+      <c r="L13" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R13" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="119"/>
+    </row>
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
@@ -2164,7 +2656,7 @@
       <c r="W14" s="73"/>
       <c r="X14" s="72"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
@@ -2190,7 +2682,7 @@
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
@@ -2216,7 +2708,7 @@
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2242,7 +2734,7 @@
       <c r="W17" s="73"/>
       <c r="X17" s="72"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2268,7 +2760,7 @@
       <c r="W18" s="74"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2293,7 +2785,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2318,7 +2810,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2343,7 +2835,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2368,7 +2860,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2393,7 +2885,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2418,7 +2910,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="73"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2443,7 +2935,7 @@
       <c r="V25" s="69"/>
       <c r="W25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2468,7 +2960,7 @@
       <c r="V26" s="70"/>
       <c r="W26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2493,7 +2985,7 @@
       <c r="V27" s="76"/>
       <c r="W27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2518,7 +3010,7 @@
       <c r="V28" s="70"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2543,7 +3035,7 @@
       <c r="V29" s="70"/>
       <c r="W29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2568,7 +3060,7 @@
       <c r="V30" s="68"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2593,7 +3085,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2618,7 +3110,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2643,7 +3135,7 @@
       <c r="V33" s="56"/>
       <c r="W33" s="73"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2668,7 +3160,7 @@
       <c r="V34" s="70"/>
       <c r="W34" s="75"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2693,7 +3185,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2718,7 +3210,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2743,7 +3235,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2768,7 +3260,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2793,7 +3285,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="73"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2818,7 +3310,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="73"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2843,7 +3335,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="73"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2868,7 +3360,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="73"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2893,7 +3385,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="73"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2918,7 +3410,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="73"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2943,7 +3435,7 @@
       <c r="V45" s="56"/>
       <c r="W45" s="73"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2968,7 +3460,7 @@
       <c r="V46" s="68"/>
       <c r="W46" s="73"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2993,7 +3485,7 @@
       <c r="V47" s="68"/>
       <c r="W47" s="73"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -3018,7 +3510,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -3043,7 +3535,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3068,7 +3560,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3093,7 +3585,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3118,7 +3610,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -3143,7 +3635,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -3168,7 +3660,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -3193,7 +3685,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3218,7 +3710,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3243,7 +3735,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3268,7 +3760,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3293,7 +3785,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3318,7 +3810,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3343,7 +3835,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3368,7 +3860,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3393,7 +3885,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3418,7 +3910,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3443,7 +3935,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3468,7 +3960,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3493,7 +3985,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3518,7 +4010,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3543,7 +4035,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3568,7 +4060,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3593,7 +4085,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3618,7 +4110,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3643,7 +4135,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3668,7 +4160,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3693,7 +4185,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3718,7 +4210,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3743,7 +4235,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3768,7 +4260,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3793,7 +4285,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="16.5">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3818,7 +4310,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3843,7 +4335,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3868,7 +4360,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3893,7 +4385,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3918,7 +4410,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3943,7 +4435,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3968,7 +4460,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3993,7 +4485,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4018,7 +4510,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -4043,7 +4535,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -4068,7 +4560,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4093,7 +4585,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4118,7 +4610,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -4143,7 +4635,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -4168,7 +4660,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -4193,7 +4685,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -4218,7 +4710,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -4243,7 +4735,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4268,7 +4760,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4293,7 +4785,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4318,7 +4810,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4343,7 +4835,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4368,7 +4860,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4393,7 +4885,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4418,7 +4910,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4443,7 +4935,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4468,7 +4960,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4493,7 +4985,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4518,7 +5010,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4543,7 +5035,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4568,7 +5060,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4593,7 +5085,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4618,7 +5110,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4643,7 +5135,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4668,7 +5160,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4693,7 +5185,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4718,7 +5210,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4743,7 +5235,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4768,7 +5260,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4793,7 +5285,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4818,7 +5310,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4843,7 +5335,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4868,7 +5360,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4893,7 +5385,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4918,7 +5410,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4943,7 +5435,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4968,7 +5460,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4993,7 +5485,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -5018,7 +5510,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -5043,7 +5535,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -5068,7 +5560,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -5093,7 +5585,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -5118,7 +5610,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -5143,7 +5635,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -5168,7 +5660,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -5193,7 +5685,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -5218,7 +5710,7 @@
       <c r="V136" s="56"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -5239,7 +5731,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5260,7 +5752,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5281,7 +5773,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5302,7 +5794,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5323,7 +5815,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5344,7 +5836,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5365,7 +5857,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5386,7 +5878,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5407,7 +5899,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5428,7 +5920,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5449,7 +5941,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5470,7 +5962,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5491,7 +5983,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5512,7 +6004,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5533,7 +6025,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5554,7 +6046,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5575,7 +6067,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5596,7 +6088,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5617,7 +6109,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5638,7 +6130,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5659,7 +6151,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5680,7 +6172,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5701,7 +6193,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5722,7 +6214,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5743,7 +6235,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5764,7 +6256,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5785,7 +6277,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5806,7 +6298,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5827,7 +6319,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5848,7 +6340,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5869,7 +6361,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5890,7 +6382,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5911,7 +6403,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5932,7 +6424,7 @@
       <c r="R170" s="57"/>
       <c r="W170" s="57"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23">
       <c r="A171" s="56"/>
       <c r="B171" s="56"/>
       <c r="C171" s="56"/>
@@ -5977,12 +6469,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S5" r:id="rId1"/>
+    <hyperlink ref="S6" r:id="rId2"/>
+    <hyperlink ref="S7" r:id="rId3" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S8" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S9" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S10" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S11" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5990,34 +6488,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6073,7 +6571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="94" customFormat="1" ht="16.5">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -6093,7 +6591,7 @@
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
     </row>
-    <row r="3" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="94" customFormat="1" ht="16.5">
       <c r="A3" s="85"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
@@ -6113,7 +6611,7 @@
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6140,41 +6638,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6209,9 +6707,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6222,9 +6720,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6235,9 +6733,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6248,9 +6746,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6261,9 +6759,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6274,9 +6772,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6287,9 +6785,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6300,9 +6798,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6313,7 +6811,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6340,61 +6838,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6435,7 +6933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6450,7 +6948,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6465,7 +6963,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6480,7 +6978,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6495,7 +6993,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6510,7 +7008,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6525,7 +7023,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6540,7 +7038,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6555,7 +7053,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6570,7 +7068,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6585,7 +7083,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6600,7 +7098,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6615,7 +7113,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6655,61 +7153,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6750,7 +7248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6765,7 +7263,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6780,7 +7278,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6795,7 +7293,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6810,7 +7308,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6825,7 +7323,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6840,7 +7338,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6855,7 +7353,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6870,7 +7368,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6885,7 +7383,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6900,7 +7398,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6915,7 +7413,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6930,7 +7428,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6969,61 +7467,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7064,7 +7562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="82.5">
       <c r="A4" s="80">
         <v>1</v>
       </c>
@@ -7103,7 +7601,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -7118,7 +7616,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7133,7 +7631,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7148,7 +7646,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7163,7 +7661,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7178,7 +7676,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7193,7 +7691,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7208,7 +7706,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7223,7 +7721,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7238,7 +7736,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7253,7 +7751,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7268,7 +7766,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7307,63 +7805,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7404,7 +7902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7419,7 +7917,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7434,7 +7932,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7449,7 +7947,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7464,7 +7962,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7479,7 +7977,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7494,7 +7992,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7509,7 +8007,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7524,7 +8022,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7539,7 +8037,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7554,7 +8052,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7569,7 +8067,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7584,7 +8082,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7623,25 +8121,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7667,7 +8165,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7677,7 +8175,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7687,7 +8185,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7697,7 +8195,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7707,7 +8205,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7717,7 +8215,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7727,7 +8225,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7737,7 +8235,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7747,7 +8245,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7757,7 +8255,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7767,7 +8265,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7777,7 +8275,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7787,7 +8285,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7797,7 +8295,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7807,7 +8305,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7817,7 +8315,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7827,7 +8325,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7837,7 +8335,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.4.1 20170425/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.4.1 20170425\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="640" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="825" yWindow="645" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.4.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.1 新特性|Fix Bug'!$A$1:$W$21</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -410,12 +410,40 @@
     <t>http://192.168.60.204/browse/EQ-841</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>风控规则调整</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <rPh sb="0" eb="1">
+      <t>shu'sheng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3264</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -863,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,6 +1198,15 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,14 +1234,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1221,8 +1255,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1584,36 +1618,36 @@
   <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A2" s="79">
         <v>1</v>
       </c>
@@ -1746,7 +1780,7 @@
       <c r="W2" s="71"/>
       <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A3" s="79">
         <v>2</v>
       </c>
@@ -1808,7 +1842,7 @@
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="79">
         <v>3</v>
       </c>
@@ -1870,9 +1904,9 @@
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="113" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="95">
-        <v>1</v>
+    <row r="5" spans="1:24" s="104" customFormat="1" ht="54">
+      <c r="A5" s="79">
+        <v>4</v>
       </c>
       <c r="B5" s="95" t="s">
         <v>68</v>
@@ -1926,38 +1960,76 @@
       </c>
       <c r="T5" s="99"/>
       <c r="U5" s="99"/>
-      <c r="V5" s="111"/>
+      <c r="V5" s="102"/>
       <c r="W5" s="98"/>
-      <c r="X5" s="112"/>
-    </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="X5" s="103"/>
+    </row>
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+      <c r="A6" s="79">
+        <v>5</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="59">
+        <v>42844</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="59">
+        <v>42844</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="67"/>
+      <c r="L6" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42849</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="114" t="s">
+        <v>115</v>
+      </c>
       <c r="T6" s="67"/>
       <c r="U6" s="56"/>
       <c r="V6" s="66"/>
-      <c r="W6" s="73"/>
+      <c r="W6" s="115"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="79"/>
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+      <c r="A7" s="79">
+        <v>6</v>
+      </c>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="77"/>
@@ -1982,7 +2054,7 @@
       <c r="W7" s="84"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -2008,7 +2080,7 @@
       <c r="W8" s="73"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -2034,7 +2106,7 @@
       <c r="W9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -2060,7 +2132,7 @@
       <c r="W10" s="73"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -2086,7 +2158,7 @@
       <c r="W11" s="73"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -2112,7 +2184,7 @@
       <c r="W12" s="73"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
@@ -2138,7 +2210,7 @@
       <c r="W13" s="73"/>
       <c r="X13" s="72"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
@@ -2164,7 +2236,7 @@
       <c r="W14" s="73"/>
       <c r="X14" s="72"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
@@ -2190,7 +2262,7 @@
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
@@ -2216,7 +2288,7 @@
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2242,7 +2314,7 @@
       <c r="W17" s="73"/>
       <c r="X17" s="72"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2268,7 +2340,7 @@
       <c r="W18" s="74"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2293,7 +2365,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2318,7 +2390,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2343,7 +2415,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2368,7 +2440,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2393,7 +2465,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2418,7 +2490,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="73"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2443,7 +2515,7 @@
       <c r="V25" s="69"/>
       <c r="W25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2468,7 +2540,7 @@
       <c r="V26" s="70"/>
       <c r="W26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2493,7 +2565,7 @@
       <c r="V27" s="76"/>
       <c r="W27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2518,7 +2590,7 @@
       <c r="V28" s="70"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2543,7 +2615,7 @@
       <c r="V29" s="70"/>
       <c r="W29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2568,7 +2640,7 @@
       <c r="V30" s="68"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2593,7 +2665,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2618,7 +2690,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2643,7 +2715,7 @@
       <c r="V33" s="56"/>
       <c r="W33" s="73"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2668,7 +2740,7 @@
       <c r="V34" s="70"/>
       <c r="W34" s="75"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2693,7 +2765,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2718,7 +2790,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2743,7 +2815,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2768,7 +2840,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2793,7 +2865,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="73"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2818,7 +2890,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="73"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2843,7 +2915,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="73"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2868,7 +2940,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="73"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2893,7 +2965,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="73"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2918,7 +2990,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="73"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2943,7 +3015,7 @@
       <c r="V45" s="56"/>
       <c r="W45" s="73"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2968,7 +3040,7 @@
       <c r="V46" s="68"/>
       <c r="W46" s="73"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2993,7 +3065,7 @@
       <c r="V47" s="68"/>
       <c r="W47" s="73"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -3018,7 +3090,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -3043,7 +3115,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3068,7 +3140,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3093,7 +3165,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3118,7 +3190,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -3143,7 +3215,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -3168,7 +3240,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -3193,7 +3265,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3218,7 +3290,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3243,7 +3315,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3268,7 +3340,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3293,7 +3365,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3318,7 +3390,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3343,7 +3415,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3368,7 +3440,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3393,7 +3465,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3418,7 +3490,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3443,7 +3515,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3468,7 +3540,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3493,7 +3565,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3518,7 +3590,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3543,7 +3615,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3568,7 +3640,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3593,7 +3665,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3618,7 +3690,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3643,7 +3715,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3668,7 +3740,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3693,7 +3765,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3718,7 +3790,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3743,7 +3815,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3768,7 +3840,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3793,7 +3865,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="16.5">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3818,7 +3890,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3843,7 +3915,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3868,7 +3940,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3893,7 +3965,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3918,7 +3990,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3943,7 +4015,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3968,7 +4040,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3993,7 +4065,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4018,7 +4090,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -4043,7 +4115,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -4068,7 +4140,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4093,7 +4165,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4118,7 +4190,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -4143,7 +4215,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -4168,7 +4240,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -4193,7 +4265,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -4218,7 +4290,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -4243,7 +4315,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4268,7 +4340,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4293,7 +4365,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4318,7 +4390,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4343,7 +4415,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4368,7 +4440,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4393,7 +4465,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4418,7 +4490,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4443,7 +4515,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4468,7 +4540,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4493,7 +4565,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4518,7 +4590,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4543,7 +4615,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4568,7 +4640,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4593,7 +4665,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4618,7 +4690,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4643,7 +4715,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4668,7 +4740,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4693,7 +4765,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4718,7 +4790,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4743,7 +4815,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4768,7 +4840,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4793,7 +4865,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4818,7 +4890,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4843,7 +4915,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4868,7 +4940,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4893,7 +4965,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4918,7 +4990,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4943,7 +5015,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4968,7 +5040,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4993,7 +5065,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -5018,7 +5090,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -5043,7 +5115,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -5068,7 +5140,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -5093,7 +5165,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -5118,7 +5190,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -5143,7 +5215,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -5168,7 +5240,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -5193,7 +5265,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -5218,7 +5290,7 @@
       <c r="V136" s="56"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -5239,7 +5311,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5260,7 +5332,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5281,7 +5353,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5302,7 +5374,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5323,7 +5395,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5344,7 +5416,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5365,7 +5437,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5386,7 +5458,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5407,7 +5479,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5428,7 +5500,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5449,7 +5521,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5470,7 +5542,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5491,7 +5563,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5512,7 +5584,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5533,7 +5605,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5554,7 +5626,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5575,7 +5647,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5596,7 +5668,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5617,7 +5689,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5638,7 +5710,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5659,7 +5731,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5680,7 +5752,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5701,7 +5773,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5722,7 +5794,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5743,7 +5815,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5764,7 +5836,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5785,7 +5857,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5806,7 +5878,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5827,7 +5899,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5848,7 +5920,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5869,7 +5941,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5890,7 +5962,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5911,7 +5983,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5932,7 +6004,7 @@
       <c r="R170" s="57"/>
       <c r="W170" s="57"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23">
       <c r="A171" s="56"/>
       <c r="B171" s="56"/>
       <c r="C171" s="56"/>
@@ -5977,12 +6049,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S5" r:id="rId1"/>
+    <hyperlink ref="S6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5997,27 +6070,27 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6073,7 +6146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="94" customFormat="1" ht="16.5">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -6093,7 +6166,7 @@
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
     </row>
-    <row r="3" spans="1:18" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="94" customFormat="1" ht="16.5">
       <c r="A3" s="85"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
@@ -6113,7 +6186,7 @@
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6147,34 +6220,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6209,9 +6282,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
-      <c r="B3" s="104"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6222,9 +6295,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6235,9 +6308,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6248,9 +6321,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6261,9 +6334,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6274,9 +6347,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6287,9 +6360,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6300,9 +6373,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6313,7 +6386,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6347,54 +6420,54 @@
       <selection activeCell="A5" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6435,7 +6508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6450,7 +6523,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6465,7 +6538,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6480,7 +6553,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6495,7 +6568,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6510,7 +6583,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6525,7 +6598,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6540,7 +6613,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6555,7 +6628,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6570,7 +6643,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6585,7 +6658,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6600,7 +6673,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6615,7 +6688,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6662,54 +6735,54 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6750,7 +6823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6765,7 +6838,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -6780,7 +6853,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6795,7 +6868,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6810,7 +6883,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6825,7 +6898,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6840,7 +6913,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6855,7 +6928,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6870,7 +6943,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6885,7 +6958,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6900,7 +6973,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6915,7 +6988,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6930,7 +7003,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6976,54 +7049,54 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7064,7 +7137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="96" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="82.5">
       <c r="A4" s="80">
         <v>1</v>
       </c>
@@ -7103,7 +7176,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="80"/>
       <c r="B5" s="80"/>
       <c r="C5" s="80"/>
@@ -7118,7 +7191,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7133,7 +7206,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7148,7 +7221,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7163,7 +7236,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7178,7 +7251,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7193,7 +7266,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7208,7 +7281,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7223,7 +7296,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7238,7 +7311,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7253,7 +7326,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7268,7 +7341,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7314,56 +7387,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7404,7 +7477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7419,7 +7492,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7434,7 +7507,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7449,7 +7522,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7464,7 +7537,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7479,7 +7552,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7494,7 +7567,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7509,7 +7582,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7524,7 +7597,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7539,7 +7612,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7554,7 +7627,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7569,7 +7642,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7584,7 +7657,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7630,18 +7703,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7667,7 +7740,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7677,7 +7750,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7687,7 +7760,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7697,7 +7770,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7707,7 +7780,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7717,7 +7790,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7727,7 +7800,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7737,7 +7810,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7747,7 +7820,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7757,7 +7830,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7767,7 +7840,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7777,7 +7850,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7787,7 +7860,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7797,7 +7870,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7807,7 +7880,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7817,7 +7890,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7827,7 +7900,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7837,7 +7910,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.4.1 20170425\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="825" yWindow="645" windowWidth="25605" windowHeight="14565"/>
+    <workbookView xWindow="825" yWindow="645" windowWidth="25605" windowHeight="14565" tabRatio="795"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.4.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -17,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.4.1 新特性|Fix Bug'!$A$1:$W$22</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="147">
   <si>
     <t>No</t>
   </si>
@@ -511,11 +516,39 @@
   <si>
     <t>JRYF-482</t>
   </si>
+  <si>
+    <t>风控规则调整</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <rPh sb="0" eb="1">
+      <t>shu'sheng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3264</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="29">
     <font>
       <sz val="11"/>
@@ -978,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1294,6 +1327,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,26 +1375,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1357,8 +1393,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1377,74 +1413,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1464,7 +1432,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1784,11 +1752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2134,7 +2102,7 @@
       <c r="W5" s="98"/>
       <c r="X5" s="103"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="79">
         <v>5</v>
       </c>
@@ -2142,61 +2110,61 @@
         <v>68</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="H6" s="59">
-        <v>42838</v>
+        <v>42844</v>
       </c>
       <c r="I6" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="59">
-        <v>42838</v>
+        <v>42844</v>
       </c>
       <c r="K6" s="58"/>
       <c r="L6" s="78" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="P6" s="78" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="59">
-        <v>42846</v>
+        <v>42849</v>
       </c>
       <c r="R6" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="114" t="s">
-        <v>116</v>
+      <c r="S6" s="121" t="s">
+        <v>146</v>
       </c>
       <c r="T6" s="67"/>
       <c r="U6" s="56"/>
       <c r="V6" s="66"/>
-      <c r="W6" s="115"/>
+      <c r="W6" s="106"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="33.75" customHeight="1">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="79">
         <v>6</v>
       </c>
@@ -2207,13 +2175,13 @@
         <v>110</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>73</v>
@@ -2229,7 +2197,7 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="78" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M7" s="58" t="s">
         <v>114</v>
@@ -2238,7 +2206,7 @@
         <v>76</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P7" s="78" t="s">
         <v>85</v>
@@ -2249,16 +2217,16 @@
       <c r="R7" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="114" t="s">
-        <v>121</v>
+      <c r="S7" s="105" t="s">
+        <v>116</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="56"/>
       <c r="V7" s="66"/>
-      <c r="W7" s="115"/>
+      <c r="W7" s="106"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="79">
         <v>7</v>
       </c>
@@ -2269,13 +2237,13 @@
         <v>110</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>73</v>
@@ -2311,17 +2279,17 @@
       <c r="R8" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S8" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="T8" s="56"/>
+      <c r="S8" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="67"/>
       <c r="U8" s="56"/>
       <c r="V8" s="66"/>
-      <c r="W8" s="84"/>
+      <c r="W8" s="106"/>
       <c r="X8" s="72"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="33">
-      <c r="A9" s="95">
+      <c r="A9" s="79">
         <v>8</v>
       </c>
       <c r="B9" s="79" t="s">
@@ -2331,7 +2299,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>71</v>
@@ -2373,8 +2341,8 @@
       <c r="R9" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="114" t="s">
-        <v>126</v>
+      <c r="S9" s="105" t="s">
+        <v>124</v>
       </c>
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
@@ -2393,7 +2361,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>71</v>
@@ -2435,8 +2403,8 @@
       <c r="R10" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="114" t="s">
-        <v>128</v>
+      <c r="S10" s="105" t="s">
+        <v>126</v>
       </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
@@ -2455,13 +2423,13 @@
         <v>110</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>73</v>
@@ -2497,8 +2465,8 @@
       <c r="R11" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="114" t="s">
-        <v>131</v>
+      <c r="S11" s="105" t="s">
+        <v>128</v>
       </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
@@ -2506,7 +2474,7 @@
       <c r="W11" s="84"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="49.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A12" s="79">
         <v>11</v>
       </c>
@@ -2517,13 +2485,13 @@
         <v>110</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G12" s="58" t="s">
         <v>73</v>
@@ -2539,7 +2507,7 @@
       </c>
       <c r="K12" s="58"/>
       <c r="L12" s="78" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="M12" s="58" t="s">
         <v>114</v>
@@ -2548,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="O12" s="58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P12" s="78" t="s">
         <v>85</v>
@@ -2559,8 +2527,8 @@
       <c r="R12" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S12" s="56" t="s">
-        <v>136</v>
+      <c r="S12" s="105" t="s">
+        <v>131</v>
       </c>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
@@ -2568,8 +2536,8 @@
       <c r="W12" s="84"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="120" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A13" s="95">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="49.5">
+      <c r="A13" s="79">
         <v>12</v>
       </c>
       <c r="B13" s="79" t="s">
@@ -2579,13 +2547,13 @@
         <v>110</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="116" t="s">
-        <v>138</v>
+      <c r="F13" s="58" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="58" t="s">
         <v>73</v>
@@ -2599,9 +2567,9 @@
       <c r="J13" s="59">
         <v>42838</v>
       </c>
-      <c r="K13" s="116"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="78" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M13" s="58" t="s">
         <v>114</v>
@@ -2621,46 +2589,82 @@
       <c r="R13" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="117" t="s">
+      <c r="S13" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="72"/>
+    </row>
+    <row r="14" spans="1:24" s="111" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A14" s="79">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="59">
+        <v>42838</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="59">
+        <v>42838</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="59">
+        <v>42846</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="119"/>
-    </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A14" s="51"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="72"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="110"/>
     </row>
     <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="96"/>
       <c r="F15" s="96"/>
       <c r="G15" s="96"/>
@@ -2675,9 +2679,9 @@
       <c r="P15" s="98"/>
       <c r="Q15" s="97"/>
       <c r="R15" s="98"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="66"/>
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
@@ -2686,7 +2690,7 @@
       <c r="A16" s="51"/>
       <c r="B16" s="95"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="96"/>
       <c r="F16" s="96"/>
       <c r="G16" s="96"/>
@@ -2697,39 +2701,39 @@
       <c r="L16" s="98"/>
       <c r="M16" s="96"/>
       <c r="N16" s="96"/>
-      <c r="O16" s="101"/>
+      <c r="O16" s="96"/>
       <c r="P16" s="98"/>
       <c r="Q16" s="97"/>
       <c r="R16" s="98"/>
       <c r="S16" s="67"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="56"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
       <c r="V17" s="56"/>
       <c r="W17" s="73"/>
       <c r="X17" s="72"/>
@@ -2745,22 +2749,22 @@
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="63"/>
+      <c r="K18" s="58"/>
       <c r="L18" s="62"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
-      <c r="P18" s="65"/>
+      <c r="P18" s="62"/>
       <c r="Q18" s="59"/>
-      <c r="R18" s="65"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="56"/>
       <c r="T18" s="56"/>
       <c r="U18" s="56"/>
       <c r="V18" s="56"/>
-      <c r="W18" s="74"/>
+      <c r="W18" s="73"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2771,19 +2775,20 @@
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
-      <c r="K19" s="64"/>
+      <c r="K19" s="63"/>
       <c r="L19" s="62"/>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
-      <c r="P19" s="62"/>
+      <c r="P19" s="65"/>
       <c r="Q19" s="59"/>
-      <c r="R19" s="62"/>
+      <c r="R19" s="65"/>
       <c r="S19" s="56"/>
       <c r="T19" s="56"/>
       <c r="U19" s="56"/>
       <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="72"/>
     </row>
     <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
@@ -2801,7 +2806,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
-      <c r="P20" s="56"/>
+      <c r="P20" s="62"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="62"/>
       <c r="S20" s="56"/>
@@ -2826,7 +2831,7 @@
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
-      <c r="P21" s="66"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="59"/>
       <c r="R21" s="62"/>
       <c r="S21" s="56"/>
@@ -2839,26 +2844,26 @@
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="58"/>
-      <c r="F22" s="60"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="58"/>
       <c r="H22" s="59"/>
-      <c r="I22" s="58"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="59"/>
-      <c r="K22" s="58"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="62"/>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="66"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="62"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="73"/>
+      <c r="W22" s="57"/>
     </row>
     <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
@@ -2929,11 +2934,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="75"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="73"/>
     </row>
     <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
@@ -2954,10 +2959,10 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
       <c r="W26" s="75"/>
     </row>
     <row r="27" spans="1:24" ht="16.5">
@@ -2972,7 +2977,7 @@
       <c r="I27" s="58"/>
       <c r="J27" s="59"/>
       <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="62"/>
@@ -2982,7 +2987,7 @@
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
-      <c r="V27" s="76"/>
+      <c r="V27" s="70"/>
       <c r="W27" s="75"/>
     </row>
     <row r="28" spans="1:24" ht="16.5">
@@ -3007,7 +3012,7 @@
       <c r="S28" s="70"/>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
+      <c r="V28" s="76"/>
       <c r="W28" s="75"/>
     </row>
     <row r="29" spans="1:24" ht="16.5">
@@ -3022,7 +3027,7 @@
       <c r="I29" s="58"/>
       <c r="J29" s="59"/>
       <c r="K29" s="58"/>
-      <c r="L29" s="62"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="62"/>
@@ -3054,11 +3059,11 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="62"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
@@ -3079,11 +3084,11 @@
       <c r="P31" s="62"/>
       <c r="Q31" s="59"/>
       <c r="R31" s="62"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="73"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="62"/>
     </row>
     <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
@@ -3146,7 +3151,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="58"/>
       <c r="J34" s="59"/>
-      <c r="K34" s="60"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="62"/>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
@@ -3154,36 +3159,36 @@
       <c r="P34" s="62"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="62"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="75"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="73"/>
     </row>
     <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
-      <c r="D35" s="52"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="58"/>
       <c r="H35" s="59"/>
       <c r="I35" s="58"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="58"/>
+      <c r="K35" s="60"/>
       <c r="L35" s="62"/>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
+      <c r="O35" s="62"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="59"/>
       <c r="R35" s="62"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="71"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70"/>
+      <c r="V35" s="70"/>
+      <c r="W35" s="75"/>
     </row>
     <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
@@ -3208,7 +3213,7 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="73"/>
+      <c r="W36" s="71"/>
     </row>
     <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
@@ -3439,25 +3444,25 @@
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
-      <c r="D46" s="53"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
       <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="59"/>
       <c r="K46" s="58"/>
       <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
+      <c r="M46" s="58"/>
       <c r="N46" s="58"/>
       <c r="O46" s="58"/>
       <c r="P46" s="62"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="62"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
       <c r="W46" s="73"/>
     </row>
     <row r="47" spans="1:23" ht="16.5">
@@ -3489,14 +3494,14 @@
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
-      <c r="D48" s="55"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="58"/>
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
       <c r="H48" s="59"/>
       <c r="I48" s="59"/>
       <c r="J48" s="59"/>
-      <c r="K48" s="64"/>
+      <c r="K48" s="58"/>
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
       <c r="N48" s="58"/>
@@ -3504,11 +3509,11 @@
       <c r="P48" s="62"/>
       <c r="Q48" s="59"/>
       <c r="R48" s="62"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="57"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="68"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="73"/>
     </row>
     <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
@@ -3661,24 +3666,24 @@
       <c r="W54" s="57"/>
     </row>
     <row r="55" spans="1:23" ht="16.5">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="56"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="61"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
       <c r="K55" s="64"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
       <c r="N55" s="58"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="57"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="62"/>
       <c r="S55" s="56"/>
       <c r="T55" s="56"/>
       <c r="U55" s="56"/>
@@ -4067,7 +4072,7 @@
       <c r="D71" s="57"/>
       <c r="E71" s="56"/>
       <c r="F71" s="58"/>
-      <c r="G71" s="56"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="61"/>
       <c r="I71" s="56"/>
       <c r="J71" s="61"/>
@@ -4216,7 +4221,7 @@
       <c r="C77" s="56"/>
       <c r="D77" s="57"/>
       <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="56"/>
       <c r="H77" s="61"/>
       <c r="I77" s="56"/>
@@ -4310,7 +4315,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" ht="16.5">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -4324,7 +4329,7 @@
       <c r="K81" s="64"/>
       <c r="L81" s="56"/>
       <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
+      <c r="N81" s="58"/>
       <c r="O81" s="56"/>
       <c r="P81" s="56"/>
       <c r="Q81" s="61"/>
@@ -5729,6 +5734,10 @@
       <c r="P137" s="56"/>
       <c r="Q137" s="61"/>
       <c r="R137" s="57"/>
+      <c r="S137" s="56"/>
+      <c r="T137" s="56"/>
+      <c r="U137" s="56"/>
+      <c r="V137" s="56"/>
       <c r="W137" s="57"/>
     </row>
     <row r="138" spans="1:23">
@@ -6445,13 +6454,34 @@
       <c r="R171" s="57"/>
       <c r="W171" s="57"/>
     </row>
+    <row r="172" spans="1:23">
+      <c r="A172" s="56"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="56"/>
+      <c r="G172" s="56"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="56"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="64"/>
+      <c r="L172" s="56"/>
+      <c r="M172" s="56"/>
+      <c r="N172" s="56"/>
+      <c r="O172" s="56"/>
+      <c r="P172" s="56"/>
+      <c r="Q172" s="61"/>
+      <c r="R172" s="57"/>
+      <c r="W172" s="57"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N81">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -6469,18 +6499,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S5" r:id="rId1"/>
-    <hyperlink ref="S6" r:id="rId2"/>
-    <hyperlink ref="S7" r:id="rId3" tooltip="View this issue in JIRA"/>
-    <hyperlink ref="S8" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
-    <hyperlink ref="S9" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
-    <hyperlink ref="S10" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
-    <hyperlink ref="S11" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S7" r:id="rId2"/>
+    <hyperlink ref="S8" r:id="rId3" tooltip="View this issue in JIRA"/>
+    <hyperlink ref="S9" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S10" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S11" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S12" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYF-442"/>
+    <hyperlink ref="S6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6488,7 +6519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6638,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6658,19 +6689,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6708,8 +6739,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6721,8 +6752,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6734,8 +6765,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6747,8 +6778,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6760,8 +6791,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6773,8 +6804,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6786,8 +6817,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6799,8 +6830,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6838,7 +6869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6861,36 +6892,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7153,7 +7184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7176,36 +7207,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7467,7 +7498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7490,36 +7521,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7805,7 +7836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7830,36 +7861,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="118"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="120"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -8121,7 +8152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
